--- a/project/times.xlsx
+++ b/project/times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prholser/ksu/imse884/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2266B1D2-E978-DD4C-ADBF-AF7BDC554A2E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD32DD2D-F8FC-C441-9BE2-AB7BD2AC3408}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{430C9852-43D0-2A4A-9172-0729CD811E64}"/>
+    <workbookView xWindow="1120" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{430C9852-43D0-2A4A-9172-0729CD811E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="21">
   <si>
     <t>10_0.2.col</t>
   </si>
@@ -81,10 +81,13 @@
     <t>LR solution times: Assignment formulation, cold restart</t>
   </si>
   <si>
-    <t>LR solution ti+B80</t>
+    <t>LR solution times: Assignment formulation, warm restart</t>
   </si>
   <si>
     <t>LR solution times: Representative formulation, cold restart</t>
+  </si>
+  <si>
+    <t>LR solution times: Representative formulation, warm restart</t>
   </si>
 </sst>
 </file>
@@ -445,21 +448,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D35BC8-0843-6A4C-9B1D-644D9E0CF823}">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:X143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D71" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="N93" sqref="N93"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.1640625" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -627,247 +631,234 @@
         <v>6094.6314678199997</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0.92339801788300002</v>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>1.4379320144700001</v>
-      </c>
-      <c r="C19">
-        <v>2.6806840896600002</v>
-      </c>
-      <c r="D19">
-        <v>4.5539150238000001</v>
-      </c>
-      <c r="E19">
-        <v>4.54531955719</v>
+        <v>0.92339801788300002</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>1.4219045639000001</v>
+        <v>1.4379320144700001</v>
       </c>
       <c r="C20">
-        <v>3.8656187057500002</v>
+        <v>2.6806840896600002</v>
       </c>
       <c r="D20">
-        <v>5.6054391860999999</v>
+        <v>4.5539150238000001</v>
       </c>
       <c r="E20">
-        <v>5.6113739013700004</v>
+        <v>4.54531955719</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>1.6724939346300001</v>
+        <v>1.4219045639000001</v>
       </c>
       <c r="C21">
-        <v>2.9726943969700002</v>
+        <v>3.8656187057500002</v>
       </c>
       <c r="D21">
-        <v>8.8299341201800008</v>
+        <v>5.6054391860999999</v>
+      </c>
+      <c r="E21">
+        <v>5.6113739013700004</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>16.0281009674</v>
+        <v>1.6724939346300001</v>
       </c>
       <c r="C22">
-        <v>18.379691124000001</v>
+        <v>2.9726943969700002</v>
       </c>
       <c r="D22">
-        <v>33.579618453999998</v>
+        <v>8.8299341201800008</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>7.78718185425</v>
+        <v>16.0281009674</v>
       </c>
       <c r="C23">
-        <v>72.714415550200002</v>
+        <v>18.379691124000001</v>
       </c>
       <c r="D23">
-        <v>93.612511634800001</v>
+        <v>33.579618453999998</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>12.4183607101</v>
+        <v>7.78718185425</v>
       </c>
       <c r="C24">
-        <v>147.043985367</v>
+        <v>72.714415550200002</v>
       </c>
       <c r="D24">
-        <v>130.827084541</v>
+        <v>93.612511634800001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>13.718767166099999</v>
+        <v>12.4183607101</v>
       </c>
       <c r="C25">
-        <v>133.64249229399999</v>
+        <v>147.043985367</v>
       </c>
       <c r="D25">
-        <v>162.46525764500001</v>
+        <v>130.827084541</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>178.837831497</v>
+        <v>13.718767166099999</v>
       </c>
       <c r="C26">
-        <v>622.40701198600004</v>
+        <v>133.64249229399999</v>
       </c>
       <c r="D26">
-        <v>183.73250770600001</v>
+        <v>162.46525764500001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>195.44258594499999</v>
+        <v>178.837831497</v>
       </c>
       <c r="C27">
-        <v>248.67079925499999</v>
+        <v>622.40701198600004</v>
       </c>
       <c r="D27">
-        <v>235.95789814</v>
+        <v>183.73250770600001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>206.29060649900001</v>
+        <v>195.44258594499999</v>
       </c>
       <c r="C28">
-        <v>304.559673309</v>
+        <v>248.67079925499999</v>
       </c>
       <c r="D28">
-        <v>280.21134853400002</v>
+        <v>235.95789814</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>116.149162292</v>
+        <v>206.29060649900001</v>
       </c>
       <c r="C29">
-        <v>345.85918808000002</v>
+        <v>304.559673309</v>
       </c>
       <c r="D29">
-        <v>566.69466113999999</v>
+        <v>280.21134853400002</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30">
-        <v>140.86858367900001</v>
+        <v>116.149162292</v>
       </c>
       <c r="C30">
-        <v>1472.0958909999999</v>
+        <v>345.85918808000002</v>
       </c>
       <c r="D30">
-        <v>1235.0087041899999</v>
+        <v>566.69466113999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>140.86858367900001</v>
+      </c>
+      <c r="C31">
+        <v>1472.0958909999999</v>
+      </c>
+      <c r="D31">
+        <v>1235.0087041899999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>149.944394112</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>1889.1868515000001</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>1390.85661602</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>28</v>
-      </c>
-      <c r="C34">
-        <v>66</v>
-      </c>
-      <c r="D34">
-        <v>67</v>
-      </c>
-      <c r="E34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35">
         <v>28</v>
       </c>
       <c r="C35">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="D35">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -875,24 +866,27 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C36">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D36">
+        <v>131</v>
+      </c>
+      <c r="E36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C37">
         <v>120</v>
@@ -903,13 +897,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>670</v>
+        <v>120</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -917,13 +911,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="C39">
-        <v>1100</v>
+        <v>670</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -931,13 +925,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="C40">
-        <v>2400</v>
+        <v>1100</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -945,13 +939,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>62</v>
+        <v>240</v>
       </c>
       <c r="C41">
-        <v>930</v>
+        <v>2400</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -959,13 +953,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="C42">
-        <v>3270</v>
+        <v>930</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -973,13 +967,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43">
-        <v>492</v>
+        <v>218</v>
       </c>
       <c r="C43">
-        <v>7380</v>
+        <v>3270</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -987,13 +981,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>1168</v>
+        <v>492</v>
       </c>
       <c r="C44">
-        <v>17520</v>
+        <v>7380</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1001,13 +995,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45">
-        <v>248</v>
+        <v>1168</v>
       </c>
       <c r="C45">
-        <v>6198</v>
+        <v>17520</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1015,264 +1009,250 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>248</v>
+      </c>
+      <c r="C46">
+        <v>6198</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>13</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>922</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>23050</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49">
-        <v>0.92339801788300002</v>
+      <c r="D47">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <v>1.4379320144700001</v>
-      </c>
-      <c r="C50">
-        <v>1.5179481506300001</v>
-      </c>
-      <c r="D50">
-        <v>0.83842372894299999</v>
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B51">
-        <v>1.4219045639000001</v>
-      </c>
-      <c r="C51">
-        <v>3.1779336929299999</v>
-      </c>
-      <c r="D51">
-        <v>3.0514183044399998</v>
+        <v>0.92339801788300002</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B52">
-        <v>1.6724939346300001</v>
+        <v>1.4379320144700001</v>
       </c>
       <c r="C52">
-        <v>2.4747304916399999</v>
+        <v>1.5179481506300001</v>
       </c>
       <c r="D52">
-        <v>3.7495918273900002</v>
+        <v>0.83842372894299999</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B53">
-        <v>16.0281009674</v>
+        <v>1.4219045639000001</v>
       </c>
       <c r="C53">
-        <v>15.0551795959</v>
+        <v>3.1779336929299999</v>
       </c>
       <c r="D53">
-        <v>20.080204009999999</v>
+        <v>3.0514183044399998</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>7.78718185425</v>
+        <v>1.6724939346300001</v>
       </c>
       <c r="C54">
-        <v>55.544541358899998</v>
+        <v>2.4747304916399999</v>
       </c>
       <c r="D54">
-        <v>166.161941528</v>
+        <v>3.7495918273900002</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B55">
-        <v>12.4183607101</v>
+        <v>16.0281009674</v>
       </c>
       <c r="C55">
-        <v>103.78774642899999</v>
+        <v>15.0551795959</v>
       </c>
       <c r="D55">
-        <v>130.712454796</v>
+        <v>20.080204009999999</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B56">
-        <v>13.718767166099999</v>
+        <v>7.78718185425</v>
       </c>
       <c r="C56">
-        <v>101.60833168000001</v>
+        <v>55.544541358899998</v>
       </c>
       <c r="D56">
-        <v>162.062038422</v>
+        <v>166.161941528</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B57">
-        <v>178.837831497</v>
+        <v>12.4183607101</v>
       </c>
       <c r="C57">
-        <v>259.25690841699998</v>
+        <v>103.78774642899999</v>
       </c>
       <c r="D57">
-        <v>220.73734569499999</v>
-      </c>
-      <c r="E57">
-        <v>33.620397567700003</v>
+        <v>130.712454796</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B58">
-        <v>195.44258594499999</v>
+        <v>13.718767166099999</v>
       </c>
       <c r="C58">
-        <v>230.870092392</v>
+        <v>101.60833168000001</v>
       </c>
       <c r="D58">
-        <v>235.88356685599999</v>
+        <v>162.062038422</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59">
-        <v>206.29060649900001</v>
+        <v>178.837831497</v>
       </c>
       <c r="C59">
-        <v>304.57281780199997</v>
+        <v>259.25690841699998</v>
       </c>
       <c r="D59">
-        <v>279.53382682799997</v>
+        <v>220.73734569499999</v>
+      </c>
+      <c r="E59">
+        <v>33.620397567700003</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B60">
-        <v>116.149162292</v>
+        <v>195.44258594499999</v>
       </c>
       <c r="C60">
-        <v>345.391641617</v>
+        <v>230.870092392</v>
       </c>
       <c r="D60">
-        <v>563.15621376000001</v>
+        <v>235.88356685599999</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B61">
-        <v>140.86858367900001</v>
+        <v>206.29060649900001</v>
       </c>
       <c r="C61">
-        <v>1471.0412550000001</v>
+        <v>304.57281780199997</v>
       </c>
       <c r="D61">
-        <v>1235.2165288900001</v>
+        <v>279.53382682799997</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B62">
-        <v>149.944394112</v>
+        <v>116.149162292</v>
       </c>
       <c r="C62">
-        <v>1887.2403297400001</v>
+        <v>345.391641617</v>
       </c>
       <c r="D62">
-        <v>1389.29991817</v>
+        <v>563.15621376000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63">
+        <v>140.86858367900001</v>
+      </c>
+      <c r="C63">
+        <v>1471.0412550000001</v>
+      </c>
+      <c r="D63">
+        <v>1235.2165288900001</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65">
-        <v>28</v>
-      </c>
-      <c r="C65">
-        <v>41</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
+        <v>149.944394112</v>
+      </c>
+      <c r="C64">
+        <v>1887.2403297400001</v>
+      </c>
+      <c r="D64">
+        <v>1389.29991817</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B66">
-        <v>28</v>
-      </c>
-      <c r="C66">
-        <v>106</v>
-      </c>
-      <c r="D66">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B67">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C67">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1280,13 +1260,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B68">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C68">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1294,13 +1274,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B69">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C69">
-        <v>605</v>
+        <v>96</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1308,13 +1288,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B70">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="C70">
-        <v>990</v>
+        <v>108</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1322,13 +1302,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B71">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="C71">
-        <v>2160</v>
+        <v>605</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1336,30 +1316,27 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B72">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C72">
-        <v>845</v>
+        <v>990</v>
       </c>
       <c r="D72">
-        <v>20</v>
-      </c>
-      <c r="E72">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B73">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="C73">
-        <v>3052</v>
+        <v>2160</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1367,27 +1344,30 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B74">
-        <v>492</v>
+        <v>62</v>
       </c>
       <c r="C74">
-        <v>6888</v>
+        <v>845</v>
       </c>
       <c r="D74">
+        <v>20</v>
+      </c>
+      <c r="E74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B75">
-        <v>1168</v>
+        <v>218</v>
       </c>
       <c r="C75">
-        <v>16352</v>
+        <v>3052</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1395,13 +1375,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B76">
-        <v>248</v>
+        <v>492</v>
       </c>
       <c r="C76">
-        <v>5950</v>
+        <v>6888</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1409,398 +1389,1156 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B77">
-        <v>922</v>
+        <v>1168</v>
       </c>
       <c r="C77">
-        <v>22128</v>
+        <v>16352</v>
       </c>
       <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78">
+        <v>248</v>
+      </c>
+      <c r="C78">
+        <v>5950</v>
+      </c>
+      <c r="D78">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80">
-        <v>0.114322662354</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81">
-        <v>0.15234661102300001</v>
-      </c>
-      <c r="C81">
-        <v>0.14074420929000001</v>
+        <v>13</v>
+      </c>
+      <c r="B79">
+        <v>922</v>
+      </c>
+      <c r="C79">
+        <v>22128</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82">
-        <v>0.13333702087400001</v>
-      </c>
-      <c r="C82">
-        <v>0.14618015289299999</v>
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B83">
-        <v>8.3336830139199999E-2</v>
-      </c>
-      <c r="C83">
-        <v>8.0457687377900003E-2</v>
+        <v>0.114322662354</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B84">
-        <v>5.0531435012800001</v>
+        <v>0.15234661102300001</v>
       </c>
       <c r="C84">
-        <v>5.7965383529699999</v>
-      </c>
-      <c r="D84">
-        <v>6.4531517028799996</v>
-      </c>
-      <c r="E84">
-        <v>4.64278888702</v>
-      </c>
-      <c r="F84">
-        <v>4.3826608657800001</v>
+        <v>0.14074420929000001</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B85">
-        <v>6.4734373092700004</v>
+        <v>0.13333702087400001</v>
       </c>
       <c r="C85">
-        <v>9.53453540802</v>
-      </c>
-      <c r="D85">
-        <v>10.262032508900001</v>
+        <v>0.14618015289299999</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B86">
-        <v>4.7660646438600001</v>
+        <v>8.3336830139199999E-2</v>
       </c>
       <c r="C86">
-        <v>4.40786552429</v>
-      </c>
-      <c r="D86">
-        <v>5.3999528884899997</v>
-      </c>
-      <c r="E86">
-        <v>3.8970851898199999</v>
+        <v>8.0457687377900003E-2</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B87">
-        <v>0.19862747192399999</v>
+        <v>5.0531435012800001</v>
       </c>
       <c r="C87">
-        <v>0.18180942535399999</v>
+        <v>5.7965383529699999</v>
+      </c>
+      <c r="D87">
+        <v>6.4531517028799996</v>
+      </c>
+      <c r="E87">
+        <v>4.64278888702</v>
+      </c>
+      <c r="F87">
+        <v>4.3826608657800001</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B88">
-        <v>155.828081131</v>
+        <v>6.4734373092700004</v>
       </c>
       <c r="C88">
-        <v>127.199456215</v>
+        <v>9.53453540802</v>
       </c>
       <c r="D88">
-        <v>157.192998886</v>
-      </c>
-      <c r="E88">
-        <v>178.771111488</v>
-      </c>
-      <c r="F88">
-        <v>115.276694298</v>
+        <v>10.262032508900001</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B89">
-        <v>132.576334</v>
+        <v>4.7660646438600001</v>
       </c>
       <c r="C89">
-        <v>172.72638606999999</v>
+        <v>4.40786552429</v>
       </c>
       <c r="D89">
-        <v>243.84692668899999</v>
+        <v>5.3999528884899997</v>
       </c>
       <c r="E89">
-        <v>300.869763374</v>
-      </c>
-      <c r="F89">
-        <v>271.63347911800003</v>
+        <v>3.8970851898199999</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B90">
-        <v>60.065791130100003</v>
+        <v>0.19862747192399999</v>
       </c>
       <c r="C90">
-        <v>62.084241867099998</v>
-      </c>
-      <c r="D90">
-        <v>81.618421554600005</v>
-      </c>
-      <c r="E90">
-        <v>107.59427166</v>
-      </c>
-      <c r="F90">
-        <v>100.069432259</v>
-      </c>
-      <c r="G90">
-        <v>88.865528106699998</v>
+        <v>0.18180942535399999</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B91">
-        <v>6.5477800369299999</v>
+        <v>155.828081131</v>
       </c>
       <c r="C91">
-        <v>11.421333313</v>
+        <v>127.199456215</v>
       </c>
       <c r="D91">
-        <v>11.9752645493</v>
+        <v>157.192998886</v>
       </c>
       <c r="E91">
-        <v>12.143657684300001</v>
+        <v>178.771111488</v>
       </c>
       <c r="F91">
-        <v>14.2650222778</v>
+        <v>115.276694298</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B92">
-        <v>274.264140129</v>
+        <v>132.576334</v>
       </c>
       <c r="C92">
-        <v>918.77144146000001</v>
+        <v>172.72638606999999</v>
       </c>
       <c r="D92">
-        <v>803.14160346999995</v>
+        <v>243.84692668899999</v>
       </c>
       <c r="E92">
-        <v>802.39203071600002</v>
+        <v>300.869763374</v>
       </c>
       <c r="F92">
-        <v>834.89426135999997</v>
-      </c>
-      <c r="G92">
-        <v>814.30641841900001</v>
-      </c>
-      <c r="H92">
-        <v>841.62020397200001</v>
-      </c>
-      <c r="I92">
-        <v>814.43115138999997</v>
-      </c>
-      <c r="J92">
-        <v>810.49060344700001</v>
-      </c>
-      <c r="K92">
-        <v>841.41893482199998</v>
-      </c>
-      <c r="L92">
-        <v>815.26906585699999</v>
-      </c>
-      <c r="M92">
-        <v>846.94985675800001</v>
-      </c>
-      <c r="N92">
-        <v>846.84141922000003</v>
-      </c>
-      <c r="O92">
-        <v>818.34191799200005</v>
-      </c>
-      <c r="P92">
-        <v>819.49999523199995</v>
-      </c>
-      <c r="Q92">
-        <v>845.86744880699996</v>
-      </c>
-      <c r="R92">
-        <v>812.04125785799999</v>
-      </c>
-      <c r="S92">
-        <v>837.59671497299996</v>
-      </c>
-      <c r="T92">
-        <v>836.48554229700005</v>
-      </c>
-      <c r="U92">
-        <v>845.83357334100003</v>
-      </c>
-      <c r="V92">
-        <v>816.05400085400004</v>
-      </c>
-      <c r="W92">
-        <v>874.78560066199998</v>
-      </c>
-      <c r="X92">
-        <v>846.91305065200004</v>
+        <v>271.63347911800003</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B93">
-        <v>696.04763031000005</v>
+        <v>60.065791130100003</v>
       </c>
       <c r="C93">
-        <v>825.82221221899999</v>
+        <v>62.084241867099998</v>
       </c>
       <c r="D93">
-        <v>839.31715774500003</v>
+        <v>81.618421554600005</v>
       </c>
       <c r="E93">
-        <v>935.72770690899995</v>
+        <v>107.59427166</v>
       </c>
       <c r="F93">
-        <v>968.06043052699999</v>
+        <v>100.069432259</v>
       </c>
       <c r="G93">
-        <v>1106.9918899500001</v>
-      </c>
-      <c r="H93">
-        <v>1013.51549721</v>
-      </c>
-      <c r="I93">
-        <v>1008.3247585300001</v>
-      </c>
-      <c r="J93">
-        <v>1075.22230816</v>
-      </c>
-      <c r="K93">
-        <v>1101.0358180999999</v>
-      </c>
-      <c r="L93">
-        <v>1095.9455280300001</v>
-      </c>
-      <c r="M93">
-        <v>1032.83968258</v>
+        <v>88.865528106699998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94">
+        <v>6.5477800369299999</v>
+      </c>
+      <c r="C94">
+        <v>11.421333313</v>
+      </c>
+      <c r="D94">
+        <v>11.9752645493</v>
+      </c>
+      <c r="E94">
+        <v>12.143657684300001</v>
+      </c>
+      <c r="F94">
+        <v>14.2650222778</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>274.264140129</v>
+      </c>
+      <c r="C95">
+        <v>918.77144146000001</v>
+      </c>
+      <c r="D95">
+        <v>803.14160346999995</v>
+      </c>
+      <c r="E95">
+        <v>802.39203071600002</v>
+      </c>
+      <c r="F95">
+        <v>834.89426135999997</v>
+      </c>
+      <c r="G95">
+        <v>814.30641841900001</v>
+      </c>
+      <c r="H95">
+        <v>841.62020397200001</v>
+      </c>
+      <c r="I95">
+        <v>814.43115138999997</v>
+      </c>
+      <c r="J95">
+        <v>810.49060344700001</v>
+      </c>
+      <c r="K95">
+        <v>841.41893482199998</v>
+      </c>
+      <c r="L95">
+        <v>815.26906585699999</v>
+      </c>
+      <c r="M95">
+        <v>846.94985675800001</v>
+      </c>
+      <c r="N95">
+        <v>846.84141922000003</v>
+      </c>
+      <c r="O95">
+        <v>818.34191799200005</v>
+      </c>
+      <c r="P95">
+        <v>819.49999523199995</v>
+      </c>
+      <c r="Q95">
+        <v>845.86744880699996</v>
+      </c>
+      <c r="R95">
+        <v>812.04125785799999</v>
+      </c>
+      <c r="S95">
+        <v>837.59671497299996</v>
+      </c>
+      <c r="T95">
+        <v>836.48554229700005</v>
+      </c>
+      <c r="U95">
+        <v>845.83357334100003</v>
+      </c>
+      <c r="V95">
+        <v>816.05400085400004</v>
+      </c>
+      <c r="W95">
+        <v>874.78560066199998</v>
+      </c>
+      <c r="X95">
+        <v>846.91305065200004</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96">
+        <v>696.04763031000005</v>
+      </c>
+      <c r="C96">
+        <v>825.82221221899999</v>
+      </c>
+      <c r="D96">
+        <v>839.31715774500003</v>
+      </c>
+      <c r="E96">
+        <v>935.72770690899995</v>
+      </c>
+      <c r="F96">
+        <v>968.06043052699999</v>
+      </c>
+      <c r="G96">
+        <v>1106.9918899500001</v>
+      </c>
+      <c r="H96">
+        <v>1013.51549721</v>
+      </c>
+      <c r="I96">
+        <v>1008.3247585300001</v>
+      </c>
+      <c r="J96">
+        <v>1075.22230816</v>
+      </c>
+      <c r="K96">
+        <v>1101.0358180999999</v>
+      </c>
+      <c r="L96">
+        <v>1095.9455280300001</v>
+      </c>
+      <c r="M96">
+        <v>1032.83968258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="B99">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="B102">
+        <v>20</v>
+      </c>
+      <c r="C102">
+        <v>38</v>
+      </c>
+      <c r="D102">
+        <v>39</v>
+      </c>
+      <c r="E102">
+        <v>40</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="B103">
+        <v>75</v>
+      </c>
+      <c r="C103">
+        <v>107</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="B104">
+        <v>60</v>
+      </c>
+      <c r="C104">
+        <v>76</v>
+      </c>
+      <c r="D104">
+        <v>78</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="B106">
+        <v>220</v>
+      </c>
+      <c r="C106">
+        <v>339</v>
+      </c>
+      <c r="D106">
+        <v>374</v>
+      </c>
+      <c r="E106">
+        <v>386</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="B107">
+        <v>589</v>
+      </c>
+      <c r="C107">
+        <v>827</v>
+      </c>
+      <c r="D107">
+        <v>835</v>
+      </c>
+      <c r="E107">
+        <v>836</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="B108">
+        <v>340</v>
+      </c>
+      <c r="C108">
+        <v>429</v>
+      </c>
+      <c r="D108">
+        <v>478</v>
+      </c>
+      <c r="E108">
+        <v>487</v>
+      </c>
+      <c r="F108">
+        <v>495</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="B109">
+        <v>50</v>
+      </c>
+      <c r="C109">
+        <v>67</v>
+      </c>
+      <c r="D109">
+        <v>80</v>
+      </c>
+      <c r="E109">
+        <v>91</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="B110">
+        <v>1848</v>
+      </c>
+      <c r="C110">
+        <v>2706</v>
+      </c>
+      <c r="D110">
+        <v>2897</v>
+      </c>
+      <c r="E110">
+        <v>2960</v>
+      </c>
+      <c r="F110">
+        <v>2969</v>
+      </c>
+      <c r="G110">
+        <v>2989</v>
+      </c>
+      <c r="H110">
+        <v>2994</v>
+      </c>
+      <c r="I110">
+        <v>3003</v>
+      </c>
+      <c r="J110">
+        <v>3006</v>
+      </c>
+      <c r="K110">
+        <v>3011</v>
+      </c>
+      <c r="L110">
+        <v>3015</v>
+      </c>
+      <c r="M110">
+        <v>3023</v>
+      </c>
+      <c r="N110">
+        <v>3027</v>
+      </c>
+      <c r="O110">
+        <v>3028</v>
+      </c>
+      <c r="P110">
+        <v>3030</v>
+      </c>
+      <c r="Q110">
+        <v>3032</v>
+      </c>
+      <c r="R110">
+        <v>3033</v>
+      </c>
+      <c r="S110">
+        <v>3034</v>
+      </c>
+      <c r="T110">
+        <v>3036</v>
+      </c>
+      <c r="U110">
+        <v>3037</v>
+      </c>
+      <c r="V110">
+        <v>3038</v>
+      </c>
+      <c r="W110">
+        <v>3039</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>13</v>
+      </c>
+      <c r="B111">
+        <v>3308</v>
+      </c>
+      <c r="C111">
+        <v>4456</v>
+      </c>
+      <c r="D111">
+        <v>4886</v>
+      </c>
+      <c r="E111">
+        <v>5007</v>
+      </c>
+      <c r="F111">
+        <v>5083</v>
+      </c>
+      <c r="G111">
+        <v>5089</v>
+      </c>
+      <c r="H111">
+        <v>5095</v>
+      </c>
+      <c r="I111">
+        <v>5100</v>
+      </c>
+      <c r="J111">
+        <v>5102</v>
+      </c>
+      <c r="K111">
+        <v>5015</v>
+      </c>
+      <c r="L111">
+        <v>5016</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>0.114322662354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>0.15234661102300001</v>
+      </c>
+      <c r="C116">
+        <v>6.6526412963899995E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <v>0.13333702087400001</v>
+      </c>
+      <c r="C117">
+        <v>4.4780731201199998E-2</v>
+      </c>
+      <c r="D117">
+        <v>4.59699630737E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <v>8.3336830139199999E-2</v>
+      </c>
+      <c r="C118">
+        <v>2.7288436889600001E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119">
+        <v>5.0531435012800001</v>
+      </c>
+      <c r="C119">
+        <v>1.8691864013699999</v>
+      </c>
+      <c r="D119">
+        <v>1.5256567001300001</v>
+      </c>
+      <c r="E119">
+        <v>1.7287378311199999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120">
+        <v>6.4734373092700004</v>
+      </c>
+      <c r="C120">
+        <v>3.6447629928600001</v>
+      </c>
+      <c r="D120">
+        <v>3.3896007537799999</v>
+      </c>
+      <c r="E120">
+        <v>0.52612972259500002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121">
+        <v>4.7660646438600001</v>
+      </c>
+      <c r="C121">
+        <v>3.0248231887800001</v>
+      </c>
+      <c r="D121">
+        <v>2.50283336639</v>
+      </c>
+      <c r="E121">
+        <v>0.296401023865</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122">
+        <v>0.19862747192399999</v>
+      </c>
+      <c r="C122">
+        <v>6.3437461853000005E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123">
+        <v>155.828081131</v>
+      </c>
+      <c r="C123">
+        <v>65.464577674899999</v>
+      </c>
+      <c r="D123">
+        <v>59.817117691</v>
+      </c>
+      <c r="E123">
+        <v>28.5555524826</v>
+      </c>
+      <c r="F123">
+        <v>23.190909385699999</v>
+      </c>
+      <c r="G123">
+        <v>5.1553182601899996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124">
+        <v>132.576334</v>
+      </c>
+      <c r="C124">
+        <v>88.898946762099996</v>
+      </c>
+      <c r="D124">
+        <v>139.406115532</v>
+      </c>
+      <c r="E124">
+        <v>64.340105056799999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125">
+        <v>60.065791130100003</v>
+      </c>
+      <c r="C125">
+        <v>36.169199943499997</v>
+      </c>
+      <c r="D125">
+        <v>48.572656631500003</v>
+      </c>
+      <c r="E125">
+        <v>32.4627075195</v>
+      </c>
+      <c r="F125">
+        <v>7.5039157867400004</v>
+      </c>
+      <c r="G125">
+        <v>2.48493289948</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126">
+        <v>6.5477800369299999</v>
+      </c>
+      <c r="C126">
+        <v>10.210365295400001</v>
+      </c>
+      <c r="D126">
+        <v>4.5209894180300001</v>
+      </c>
+      <c r="E126">
+        <v>1.5552186965899999</v>
+      </c>
+      <c r="F126">
+        <v>1.38092708588</v>
+      </c>
+      <c r="G126">
+        <v>1.1399354934699999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127">
+        <v>274.264140129</v>
+      </c>
+      <c r="C127">
+        <v>914.25992107399998</v>
+      </c>
+      <c r="D127">
+        <v>796.42307758300001</v>
+      </c>
+      <c r="E127">
+        <v>795.99016952500006</v>
+      </c>
+      <c r="F127">
+        <v>798.30110073100002</v>
+      </c>
+      <c r="G127">
+        <v>204.56955146799999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128">
+        <v>696.04651737200004</v>
+      </c>
+      <c r="C128">
+        <v>825.04453468300005</v>
+      </c>
+      <c r="D128">
+        <v>837.79569625900001</v>
+      </c>
+      <c r="E128">
+        <v>934.11157798800002</v>
+      </c>
+      <c r="F128">
+        <v>967.52824211100005</v>
+      </c>
+      <c r="G128">
+        <v>553.90704345699999</v>
+      </c>
+      <c r="H128">
+        <v>291.21484184299999</v>
+      </c>
+      <c r="I128">
+        <v>73.556304931599996</v>
+      </c>
+      <c r="J128">
+        <v>23.8482675552</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134">
+        <v>20</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135">
+        <v>75</v>
+      </c>
+      <c r="C135">
+        <v>24</v>
+      </c>
+      <c r="D135">
+        <v>8</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136">
+        <v>60</v>
+      </c>
+      <c r="C136">
+        <v>20</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138">
+        <v>220</v>
+      </c>
+      <c r="C138">
+        <v>129</v>
+      </c>
+      <c r="D138">
+        <v>42</v>
+      </c>
+      <c r="E138">
+        <v>7</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139">
+        <v>589</v>
+      </c>
+      <c r="C139">
+        <v>246</v>
+      </c>
+      <c r="D139">
+        <v>9</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140">
+        <v>340</v>
+      </c>
+      <c r="C140">
+        <v>102</v>
+      </c>
+      <c r="D140">
+        <v>57</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+      <c r="F140">
+        <v>4</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141">
+        <v>50</v>
+      </c>
+      <c r="C141">
+        <v>19</v>
+      </c>
+      <c r="D141">
+        <v>8</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142">
+        <v>1848</v>
+      </c>
+      <c r="C142">
+        <v>858</v>
+      </c>
+      <c r="D142">
+        <v>191</v>
+      </c>
+      <c r="E142">
+        <v>63</v>
+      </c>
+      <c r="F142">
+        <v>4</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143">
+        <v>3308</v>
+      </c>
+      <c r="C143">
+        <v>1148</v>
+      </c>
+      <c r="D143">
+        <v>430</v>
+      </c>
+      <c r="E143">
+        <v>121</v>
+      </c>
+      <c r="F143">
+        <v>76</v>
+      </c>
+      <c r="G143">
+        <v>9</v>
+      </c>
+      <c r="H143">
+        <v>5</v>
+      </c>
+      <c r="I143">
+        <v>5</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/project/times.xlsx
+++ b/project/times.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prholser/ksu/imse884/project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BFDE1C-0AEE-754A-939B-A3E2CB2B17C6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="3915" windowWidth="19140" windowHeight="9045" activeTab="2"/>
+    <workbookView xWindow="340" yWindow="4480" windowWidth="26900" windowHeight="15320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assign Cold" sheetId="2" r:id="rId1"/>
@@ -156,7 +162,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -218,7 +224,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -284,6 +290,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-174B-EA46-9DB3-9F15CA7EBAD1}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -315,6 +327,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-174B-EA46-9DB3-9F15CA7EBAD1}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -346,6 +364,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-174B-EA46-9DB3-9F15CA7EBAD1}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -373,6 +397,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-174B-EA46-9DB3-9F15CA7EBAD1}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -400,6 +430,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -442,6 +477,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-174B-EA46-9DB3-9F15CA7EBAD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -489,6 +529,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-174B-EA46-9DB3-9F15CA7EBAD1}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -521,6 +567,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-174B-EA46-9DB3-9F15CA7EBAD1}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -548,6 +600,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-174B-EA46-9DB3-9F15CA7EBAD1}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -575,6 +633,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -614,6 +677,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-174B-EA46-9DB3-9F15CA7EBAD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -661,6 +729,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-174B-EA46-9DB3-9F15CA7EBAD1}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -693,10 +767,22 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-174B-EA46-9DB3-9F15CA7EBAD1}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-174B-EA46-9DB3-9F15CA7EBAD1}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -724,6 +810,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -763,6 +854,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-174B-EA46-9DB3-9F15CA7EBAD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -814,6 +910,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-174B-EA46-9DB3-9F15CA7EBAD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -834,6 +935,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -878,7 +980,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -918,8 +1020,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.829067954432205E-2"/>
-                  <c:y val="0.36188953150767661"/>
+                  <c:x val="1.5958311333532288E-2"/>
+                  <c:y val="0.2812255644120919"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -940,6 +1042,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3567-8044-8A23-8D456492690D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -967,6 +1075,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3567-8044-8A23-8D456492690D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -994,6 +1108,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-3567-8044-8A23-8D456492690D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -1021,6 +1141,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-3567-8044-8A23-8D456492690D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -1048,6 +1174,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1090,6 +1221,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3567-8044-8A23-8D456492690D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1133,6 +1269,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-3567-8044-8A23-8D456492690D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -1160,6 +1302,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-3567-8044-8A23-8D456492690D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -1187,6 +1335,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-3567-8044-8A23-8D456492690D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -1214,6 +1368,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-3567-8044-8A23-8D456492690D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -1241,6 +1401,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1283,6 +1448,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3567-8044-8A23-8D456492690D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1326,13 +1496,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-3567-8044-8A23-8D456492690D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.8052231660018875E-2"/>
-                  <c:y val="0.69907407407407407"/>
+                  <c:x val="1.8052202658341177E-2"/>
+                  <c:y val="0.56762171098751057"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1365,13 +1541,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-3567-8044-8A23-8D456492690D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.9071307031502955E-2"/>
-                  <c:y val="0.3960144473091306"/>
+                  <c:x val="5.1403686784049871E-2"/>
+                  <c:y val="0.30340025763519485"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1392,6 +1574,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-3567-8044-8A23-8D456492690D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -1419,6 +1607,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-3567-8044-8A23-8D456492690D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -1446,6 +1640,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1485,6 +1684,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-3567-8044-8A23-8D456492690D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -1528,6 +1732,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-3567-8044-8A23-8D456492690D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -1555,6 +1765,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-3567-8044-8A23-8D456492690D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -1582,6 +1798,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1618,6 +1839,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-3567-8044-8A23-8D456492690D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1639,8 +1865,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.399825021872266E-2"/>
-                  <c:y val="0.38053097345132753"/>
+                  <c:x val="1.7496751681550009E-2"/>
+                  <c:y val="0.21920327868543937"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1661,6 +1887,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-3567-8044-8A23-8D456492690D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -1688,6 +1920,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1721,6 +1958,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-3567-8044-8A23-8D456492690D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1741,6 +1983,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1770,7 +2013,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1786,7 +2028,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1848,6 +2090,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -1875,6 +2123,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -1902,6 +2156,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -1929,6 +2189,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -1956,6 +2222,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1998,6 +2269,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -2041,6 +2317,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -2068,6 +2350,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -2095,6 +2383,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -2122,6 +2416,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -2149,6 +2449,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2191,6 +2496,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -2234,6 +2544,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -2261,6 +2577,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -2288,6 +2610,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -2315,6 +2643,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -2341,6 +2675,11 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2383,6 +2722,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -2426,6 +2770,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -2453,6 +2803,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -2480,6 +2836,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -2507,6 +2869,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -2534,6 +2902,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2576,6 +2949,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2619,6 +2997,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -2646,6 +3030,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -2673,6 +3063,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -2700,6 +3096,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -2727,6 +3129,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2769,6 +3176,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2812,6 +3224,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -2839,6 +3257,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2872,6 +3295,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-3ADB-A84E-BAE4-6E59B6A65E9D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2892,6 +3320,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2921,7 +3350,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2937,7 +3365,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2999,6 +3427,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -3026,6 +3460,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -3053,6 +3493,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3083,6 +3528,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -3126,6 +3576,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -3153,6 +3609,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -3180,6 +3642,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3210,6 +3677,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3253,6 +3725,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -3280,6 +3758,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -3307,6 +3791,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3337,6 +3826,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3380,6 +3874,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -3407,6 +3907,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -3434,6 +3940,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3464,6 +3975,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3507,6 +4023,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -3534,6 +4056,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -3561,6 +4089,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3591,6 +4124,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3634,6 +4172,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -3661,6 +4205,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -3688,6 +4238,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3718,6 +4273,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3761,6 +4321,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -3788,6 +4354,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -3815,6 +4387,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3845,6 +4422,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -3888,6 +4470,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -3915,6 +4503,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -3942,6 +4536,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3972,6 +4571,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -4015,6 +4619,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -4042,6 +4652,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -4069,6 +4685,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4099,6 +4720,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -4142,6 +4768,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -4169,6 +4801,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -4196,6 +4834,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4226,6 +4869,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -4269,6 +4917,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -4296,6 +4950,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -4323,6 +4983,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4353,6 +5018,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -4396,6 +5066,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -4423,6 +5099,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -4450,6 +5132,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4480,6 +5167,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000023-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -4523,6 +5215,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -4550,6 +5248,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4577,6 +5280,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000025-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -4620,6 +5328,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -4647,6 +5361,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4674,6 +5393,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000027-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="14"/>
@@ -4717,6 +5441,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -4744,6 +5474,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4771,6 +5506,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="15"/>
@@ -4826,7 +5566,20 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-            </c:dLbl>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -4834,6 +5587,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4861,6 +5619,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002B-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="16"/>
@@ -4904,6 +5667,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002C-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -4931,6 +5700,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4958,6 +5732,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002D-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="17"/>
@@ -5001,6 +5780,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -5028,6 +5813,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5055,6 +5845,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002F-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="18"/>
@@ -5114,7 +5909,20 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-            </c:dLbl>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000030-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -5122,6 +5930,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5149,6 +5962,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000031-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="19"/>
@@ -5192,6 +6010,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000032-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -5219,6 +6043,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5246,6 +6075,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000033-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="20"/>
@@ -5289,6 +6123,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000034-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -5316,6 +6156,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5343,6 +6188,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000035-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="21"/>
@@ -5386,6 +6236,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000036-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -5413,6 +6269,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5440,6 +6301,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000037-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="22"/>
@@ -5483,6 +6349,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000038-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -5510,6 +6382,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5537,6 +6414,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000039-AAF0-7744-A4DA-0D9309BE0FD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5557,6 +6439,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5611,7 +6494,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5677,6 +6560,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-9AE7-024F-8A06-83E79AC0799A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -5708,6 +6597,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9AE7-024F-8A06-83E79AC0799A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -5739,6 +6634,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9AE7-024F-8A06-83E79AC0799A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -5766,6 +6667,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9AE7-024F-8A06-83E79AC0799A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -5793,6 +6700,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5835,6 +6747,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9AE7-024F-8A06-83E79AC0799A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5882,6 +6799,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9AE7-024F-8A06-83E79AC0799A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -5909,6 +6832,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-9AE7-024F-8A06-83E79AC0799A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -5936,6 +6865,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9AE7-024F-8A06-83E79AC0799A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -5963,6 +6898,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6002,6 +6942,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9AE7-024F-8A06-83E79AC0799A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6049,6 +6994,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-9AE7-024F-8A06-83E79AC0799A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -6081,6 +7032,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-9AE7-024F-8A06-83E79AC0799A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -6108,6 +7065,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-9AE7-024F-8A06-83E79AC0799A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -6135,6 +7098,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6168,6 +7136,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-9AE7-024F-8A06-83E79AC0799A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6188,6 +7161,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6217,7 +7191,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6233,7 +7206,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6295,6 +7268,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-6799-5747-9C76-C6FD110D9517}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -6322,6 +7301,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6799-5747-9C76-C6FD110D9517}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -6349,6 +7334,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6799-5747-9C76-C6FD110D9517}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -6376,6 +7367,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6799-5747-9C76-C6FD110D9517}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -6403,6 +7400,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6445,6 +7447,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6799-5747-9C76-C6FD110D9517}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -6488,6 +7495,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-6799-5747-9C76-C6FD110D9517}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -6515,6 +7528,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-6799-5747-9C76-C6FD110D9517}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -6542,6 +7561,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-6799-5747-9C76-C6FD110D9517}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -6569,6 +7594,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-6799-5747-9C76-C6FD110D9517}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -6596,6 +7627,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6638,6 +7674,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-6799-5747-9C76-C6FD110D9517}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -6681,6 +7722,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-6799-5747-9C76-C6FD110D9517}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -6708,6 +7755,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-6799-5747-9C76-C6FD110D9517}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -6735,6 +7788,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-6799-5747-9C76-C6FD110D9517}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -6762,6 +7821,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-6799-5747-9C76-C6FD110D9517}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -6789,6 +7854,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6828,6 +7898,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-6799-5747-9C76-C6FD110D9517}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -6871,6 +7946,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-6799-5747-9C76-C6FD110D9517}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -6898,6 +7979,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-6799-5747-9C76-C6FD110D9517}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -6925,6 +8012,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-6799-5747-9C76-C6FD110D9517}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -6952,6 +8045,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6991,6 +8089,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-6799-5747-9C76-C6FD110D9517}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7011,6 +8114,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7040,7 +8144,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7056,7 +8159,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7118,6 +8221,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -7145,6 +8254,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -7172,6 +8287,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -7199,6 +8320,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -7226,6 +8353,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -7268,6 +8400,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A319-3A45-8B2F-D9C3BF117152}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -7311,6 +8448,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -7338,6 +8481,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -7365,6 +8514,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -7392,6 +8547,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -7419,6 +8580,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -7461,6 +8627,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-A319-3A45-8B2F-D9C3BF117152}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -7504,6 +8675,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -7531,6 +8708,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -7558,6 +8741,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -7585,6 +8774,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -7611,6 +8806,11 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -7653,6 +8853,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-A319-3A45-8B2F-D9C3BF117152}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -7696,6 +8901,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -7723,6 +8934,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -7750,6 +8967,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -7777,6 +9000,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -7804,6 +9033,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -7846,6 +9080,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-A319-3A45-8B2F-D9C3BF117152}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7889,6 +9128,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -7916,6 +9161,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -7943,6 +9194,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -7970,6 +9227,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -8009,6 +9271,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-A319-3A45-8B2F-D9C3BF117152}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8052,6 +9319,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -8079,6 +9352,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -8106,6 +9385,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-A319-3A45-8B2F-D9C3BF117152}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -8133,6 +9418,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -8172,6 +9462,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-A319-3A45-8B2F-D9C3BF117152}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8223,7 +9518,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8239,7 +9533,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8301,6 +9595,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-599B-0340-A685-AE0B17D30754}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -8328,6 +9628,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-599B-0340-A685-AE0B17D30754}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -8355,6 +9661,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -8385,6 +9696,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-599B-0340-A685-AE0B17D30754}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -8428,6 +9744,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-599B-0340-A685-AE0B17D30754}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -8455,6 +9777,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-599B-0340-A685-AE0B17D30754}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -8482,6 +9810,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -8512,6 +9845,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-599B-0340-A685-AE0B17D30754}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -8555,6 +9893,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-599B-0340-A685-AE0B17D30754}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -8582,6 +9926,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-599B-0340-A685-AE0B17D30754}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -8609,6 +9959,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -8639,6 +9994,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-599B-0340-A685-AE0B17D30754}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8682,6 +10042,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-599B-0340-A685-AE0B17D30754}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -8709,6 +10075,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-599B-0340-A685-AE0B17D30754}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -8736,6 +10108,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -8766,6 +10143,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-599B-0340-A685-AE0B17D30754}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8809,6 +10191,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-599B-0340-A685-AE0B17D30754}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -8836,6 +10224,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-599B-0340-A685-AE0B17D30754}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -8863,6 +10257,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -8893,6 +10292,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-599B-0340-A685-AE0B17D30754}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -8936,6 +10340,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-599B-0340-A685-AE0B17D30754}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -8963,6 +10373,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-599B-0340-A685-AE0B17D30754}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -8990,6 +10406,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -9020,6 +10441,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-599B-0340-A685-AE0B17D30754}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -9063,6 +10489,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-599B-0340-A685-AE0B17D30754}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -9090,6 +10522,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -9117,6 +10554,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-599B-0340-A685-AE0B17D30754}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -9160,6 +10602,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-599B-0340-A685-AE0B17D30754}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -9187,6 +10635,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -9214,6 +10667,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-599B-0340-A685-AE0B17D30754}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -9257,6 +10715,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-599B-0340-A685-AE0B17D30754}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -9284,6 +10748,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -9311,6 +10780,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-599B-0340-A685-AE0B17D30754}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9331,6 +10805,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9360,7 +10835,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9376,7 +10850,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9438,6 +10912,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0CF8-3941-98EA-7E978AD245D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -9465,6 +10945,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0CF8-3941-98EA-7E978AD245D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -9492,6 +10978,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0CF8-3941-98EA-7E978AD245D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -9519,6 +11011,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0CF8-3941-98EA-7E978AD245D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -9546,6 +11044,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -9588,6 +11091,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0CF8-3941-98EA-7E978AD245D4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -9631,6 +11139,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0CF8-3941-98EA-7E978AD245D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -9658,6 +11172,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-0CF8-3941-98EA-7E978AD245D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -9685,6 +11205,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-0CF8-3941-98EA-7E978AD245D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -9712,6 +11238,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-0CF8-3941-98EA-7E978AD245D4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -9739,6 +11271,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -9781,6 +11318,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0CF8-3941-98EA-7E978AD245D4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -9838,6 +11380,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0CF8-3941-98EA-7E978AD245D4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9858,6 +11405,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9902,7 +11450,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9964,6 +11512,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-BEFC-C346-B434-7BC24F1D6C20}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -9991,6 +11545,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-BEFC-C346-B434-7BC24F1D6C20}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -10018,6 +11578,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-BEFC-C346-B434-7BC24F1D6C20}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -10045,6 +11611,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BEFC-C346-B434-7BC24F1D6C20}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -10072,6 +11644,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -10114,6 +11691,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BEFC-C346-B434-7BC24F1D6C20}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -10157,6 +11739,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-BEFC-C346-B434-7BC24F1D6C20}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -10184,6 +11772,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-BEFC-C346-B434-7BC24F1D6C20}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -10211,6 +11805,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-BEFC-C346-B434-7BC24F1D6C20}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -10238,6 +11838,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-BEFC-C346-B434-7BC24F1D6C20}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -10265,6 +11871,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -10307,6 +11918,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-BEFC-C346-B434-7BC24F1D6C20}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -10364,6 +11980,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-BEFC-C346-B434-7BC24F1D6C20}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10384,6 +12005,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10428,7 +12050,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10490,6 +12112,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-116C-D547-9D61-EDAAE853228D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -10517,6 +12145,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-116C-D547-9D61-EDAAE853228D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -10544,6 +12178,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -10574,6 +12213,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-116C-D547-9D61-EDAAE853228D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -10617,6 +12261,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-116C-D547-9D61-EDAAE853228D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -10644,6 +12294,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-116C-D547-9D61-EDAAE853228D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -10671,6 +12327,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -10701,6 +12362,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-116C-D547-9D61-EDAAE853228D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -10746,6 +12412,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-116C-D547-9D61-EDAAE853228D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10766,6 +12437,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10810,7 +12482,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10876,6 +12548,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-865E-9C4B-BF01-E05E3EC75822}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -10907,6 +12585,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-865E-9C4B-BF01-E05E3EC75822}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -10938,6 +12622,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-865E-9C4B-BF01-E05E3EC75822}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -10965,6 +12655,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-865E-9C4B-BF01-E05E3EC75822}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -10992,6 +12688,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -11034,6 +12735,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-865E-9C4B-BF01-E05E3EC75822}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -11081,6 +12787,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-865E-9C4B-BF01-E05E3EC75822}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -11113,6 +12825,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-865E-9C4B-BF01-E05E3EC75822}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -11140,6 +12858,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-865E-9C4B-BF01-E05E3EC75822}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -11167,6 +12891,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -11206,6 +12935,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-865E-9C4B-BF01-E05E3EC75822}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -11253,6 +12987,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-865E-9C4B-BF01-E05E3EC75822}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -11285,6 +13025,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-865E-9C4B-BF01-E05E3EC75822}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -11312,6 +13058,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-865E-9C4B-BF01-E05E3EC75822}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -11339,6 +13091,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -11378,6 +13135,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-865E-9C4B-BF01-E05E3EC75822}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -11423,6 +13185,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-865E-9C4B-BF01-E05E3EC75822}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11443,6 +13210,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11472,7 +13240,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11488,7 +13255,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11550,6 +13317,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-EE3E-3643-AF75-D5A8116215FB}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -11577,6 +13350,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-EE3E-3643-AF75-D5A8116215FB}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -11604,6 +13383,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-EE3E-3643-AF75-D5A8116215FB}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -11631,6 +13416,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-EE3E-3643-AF75-D5A8116215FB}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -11658,6 +13449,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -11700,6 +13496,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EE3E-3643-AF75-D5A8116215FB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -11743,6 +13544,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-EE3E-3643-AF75-D5A8116215FB}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -11770,6 +13577,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-EE3E-3643-AF75-D5A8116215FB}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -11797,6 +13610,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-EE3E-3643-AF75-D5A8116215FB}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -11824,6 +13643,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-EE3E-3643-AF75-D5A8116215FB}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -11851,6 +13676,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -11893,6 +13723,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-EE3E-3643-AF75-D5A8116215FB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -11936,6 +13771,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-EE3E-3643-AF75-D5A8116215FB}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -11963,6 +13804,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-EE3E-3643-AF75-D5A8116215FB}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -11990,6 +13837,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-EE3E-3643-AF75-D5A8116215FB}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -12017,6 +13870,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-EE3E-3643-AF75-D5A8116215FB}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -12044,6 +13903,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -12086,6 +13950,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-EE3E-3643-AF75-D5A8116215FB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -12106,6 +13975,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12135,7 +14005,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12151,7 +14020,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12213,6 +14082,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-8095-A043-B751-E7F6EB333DF4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -12240,6 +14115,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8095-A043-B751-E7F6EB333DF4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -12267,6 +14148,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-8095-A043-B751-E7F6EB333DF4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -12294,6 +14181,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8095-A043-B751-E7F6EB333DF4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -12321,6 +14214,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -12363,6 +14261,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8095-A043-B751-E7F6EB333DF4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -12406,6 +14309,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-8095-A043-B751-E7F6EB333DF4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -12433,6 +14342,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-8095-A043-B751-E7F6EB333DF4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -12460,6 +14375,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-8095-A043-B751-E7F6EB333DF4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -12487,6 +14408,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-8095-A043-B751-E7F6EB333DF4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -12514,6 +14441,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -12556,6 +14488,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8095-A043-B751-E7F6EB333DF4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -12599,6 +14536,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-8095-A043-B751-E7F6EB333DF4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -12626,6 +14569,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-8095-A043-B751-E7F6EB333DF4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -12653,6 +14602,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-8095-A043-B751-E7F6EB333DF4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -12680,6 +14635,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-8095-A043-B751-E7F6EB333DF4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -12706,6 +14667,11 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -12748,6 +14714,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-8095-A043-B751-E7F6EB333DF4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -12791,6 +14762,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-8095-A043-B751-E7F6EB333DF4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -12818,6 +14795,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -12851,6 +14833,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-8095-A043-B751-E7F6EB333DF4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -12901,7 +14888,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12917,7 +14903,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12979,6 +14965,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A346-704D-9762-5E44AD6DA39F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -13006,6 +14998,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A346-704D-9762-5E44AD6DA39F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -13033,6 +15031,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -13063,6 +15066,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A346-704D-9762-5E44AD6DA39F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -13106,6 +15114,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A346-704D-9762-5E44AD6DA39F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -13133,6 +15147,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A346-704D-9762-5E44AD6DA39F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -13160,6 +15180,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -13190,6 +15215,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A346-704D-9762-5E44AD6DA39F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -13233,6 +15263,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-A346-704D-9762-5E44AD6DA39F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -13260,6 +15296,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-A346-704D-9762-5E44AD6DA39F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -13287,6 +15329,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -13317,6 +15364,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A346-704D-9762-5E44AD6DA39F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -13337,6 +15389,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13366,7 +15419,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13382,7 +15434,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13422,8 +15474,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.922744461860672E-2"/>
-                  <c:y val="0.57870370370370372"/>
+                  <c:x val="2.9227392048421862E-2"/>
+                  <c:y val="0.4053790771779836"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -13448,13 +15500,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5635-FA45-978D-E12D6C8FB89B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.9227554208236296E-2"/>
-                  <c:y val="0.68518518518518523"/>
+                  <c:x val="2.7836143602607069E-2"/>
+                  <c:y val="0.49780734514478819"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -13479,13 +15537,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5635-FA45-978D-E12D6C8FB89B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.9227554208236296E-2"/>
-                  <c:y val="0.58333296879556717"/>
+                  <c:x val="2.7836143602607121E-2"/>
+                  <c:y val="0.39595484779777329"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -13510,13 +15574,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5635-FA45-978D-E12D6C8FB89B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.8093247843193896E-2"/>
-                  <c:y val="0.29166666666666669"/>
+                  <c:x val="2.7832747374414327E-2"/>
+                  <c:y val="0.21203114458833464"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -13537,6 +15607,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5635-FA45-978D-E12D6C8FB89B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -13564,6 +15640,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -13606,6 +15687,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5635-FA45-978D-E12D6C8FB89B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -13627,8 +15713,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.783565632297642E-2"/>
-                  <c:y val="0.72685185185185186"/>
+                  <c:x val="2.9227063381177424E-2"/>
+                  <c:y val="0.53947387349106279"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -13653,13 +15739,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5635-FA45-978D-E12D6C8FB89B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.9227554208236296E-2"/>
-                  <c:y val="0.75"/>
+                  <c:x val="3.0618859605732861E-2"/>
+                  <c:y val="0.53919981468756006"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -13685,13 +15777,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5635-FA45-978D-E12D6C8FB89B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.92275542082364E-2"/>
-                  <c:y val="0.42129629629629628"/>
+                  <c:x val="2.9227501604169939E-2"/>
+                  <c:y val="0.28076273183880918"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -13712,6 +15810,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5635-FA45-978D-E12D6C8FB89B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -13739,6 +15843,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -13778,6 +15887,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5635-FA45-978D-E12D6C8FB89B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -13798,6 +15912,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13827,7 +15942,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13859,7 +15973,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13889,7 +16009,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13919,7 +16045,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13949,7 +16081,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13984,7 +16122,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14016,7 +16160,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14048,7 +16198,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14080,7 +16236,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14117,7 +16279,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14149,7 +16317,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14181,7 +16355,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14213,7 +16393,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14250,7 +16436,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14282,7 +16474,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14314,7 +16512,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14346,7 +16550,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14655,33 +16865,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -14698,7 +16908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -14706,7 +16916,7 @@
         <v>0.92339801788300002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -14723,7 +16933,7 @@
         <v>4.54531955719</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -14740,7 +16950,7 @@
         <v>5.6113739013700004</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -14754,7 +16964,7 @@
         <v>8.8299341201800008</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -14768,7 +16978,7 @@
         <v>33.579618453999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -14782,7 +16992,7 @@
         <v>93.612511634800001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -14796,7 +17006,7 @@
         <v>130.827084541</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -14810,7 +17020,7 @@
         <v>162.46525764500001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -14824,7 +17034,7 @@
         <v>183.73250770600001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -14838,7 +17048,7 @@
         <v>235.95789814</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -14852,7 +17062,7 @@
         <v>280.21134853400002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -14866,7 +17076,7 @@
         <v>566.69466113999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -14880,7 +17090,7 @@
         <v>1235.0087041899999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -14894,7 +17104,7 @@
         <v>1390.85661602</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -14905,12 +17115,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -14924,7 +17134,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -14938,7 +17148,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -14949,7 +17159,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -14960,7 +17170,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -14971,7 +17181,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -14982,7 +17192,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -14993,7 +17203,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -15004,7 +17214,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -15015,7 +17225,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -15026,7 +17236,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -15037,7 +17247,7 @@
         <v>17520</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -15048,7 +17258,7 @@
         <v>6198</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -15067,21 +17277,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -15089,7 +17299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -15103,7 +17313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -15111,7 +17321,7 @@
         <v>0.92339801788300002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -15125,7 +17335,7 @@
         <v>0.83842372894299999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -15139,7 +17349,7 @@
         <v>3.0514183044399998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -15153,7 +17363,7 @@
         <v>3.7495918273900002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -15167,7 +17377,7 @@
         <v>20.080204009999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -15181,7 +17391,7 @@
         <v>166.161941528</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -15195,7 +17405,7 @@
         <v>130.712454796</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -15209,7 +17419,7 @@
         <v>162.062038422</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -15226,7 +17436,7 @@
         <v>33.620397567700003</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -15240,7 +17450,7 @@
         <v>235.88356685599999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -15254,7 +17464,7 @@
         <v>279.53382682799997</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -15268,7 +17478,7 @@
         <v>563.15621376000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -15282,7 +17492,7 @@
         <v>1235.2165288900001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -15296,7 +17506,7 @@
         <v>1389.29991817</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -15307,7 +17517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -15315,7 +17525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -15329,7 +17539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -15343,7 +17553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -15357,7 +17567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -15371,7 +17581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -15385,7 +17595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -15399,7 +17609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -15413,7 +17623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -15430,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -15444,7 +17654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -15458,7 +17668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -15472,7 +17682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -15486,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -15507,22 +17717,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W99" sqref="V99:W105"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -15596,7 +17806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -15604,7 +17814,7 @@
         <v>0.114322662354</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -15615,7 +17825,7 @@
         <v>0.14074420929000001</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -15626,7 +17836,7 @@
         <v>0.14618015289299999</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -15637,7 +17847,7 @@
         <v>8.0457687377900003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -15657,7 +17867,7 @@
         <v>4.3826608657800001</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -15671,7 +17881,7 @@
         <v>10.262032508900001</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -15688,7 +17898,7 @@
         <v>3.8970851898199999</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -15699,7 +17909,7 @@
         <v>0.18180942535399999</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -15719,7 +17929,7 @@
         <v>115.276694298</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -15739,7 +17949,7 @@
         <v>271.63347911800003</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -15762,7 +17972,7 @@
         <v>88.865528106699998</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -15782,7 +17992,7 @@
         <v>14.2650222778</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -15856,7 +18066,7 @@
         <v>846.91305065200004</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -15897,7 +18107,7 @@
         <v>1032.83968258</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -15968,7 +18178,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -15976,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -15987,7 +18197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -15998,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -16009,7 +18219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -16029,7 +18239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -16043,7 +18253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -16060,7 +18270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -16071,7 +18281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -16091,7 +18301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -16111,7 +18321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -16134,7 +18344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -16154,7 +18364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -16228,7 +18438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -16276,21 +18486,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -16322,7 +18532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -16330,7 +18540,7 @@
         <v>0.114322662354</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -16341,7 +18551,7 @@
         <v>6.6526412963899995E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -16355,7 +18565,7 @@
         <v>4.59699630737E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -16366,7 +18576,7 @@
         <v>2.7288436889600001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -16383,7 +18593,7 @@
         <v>1.7287378311199999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -16400,7 +18610,7 @@
         <v>0.52612972259500002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -16417,7 +18627,7 @@
         <v>0.296401023865</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -16428,7 +18638,7 @@
         <v>6.3437461853000005E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -16451,7 +18661,7 @@
         <v>5.1553182601899996</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -16468,7 +18678,7 @@
         <v>64.340105056799999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -16491,7 +18701,7 @@
         <v>2.48493289948</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -16514,7 +18724,7 @@
         <v>1.1399354934699999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -16537,7 +18747,7 @@
         <v>204.56955146799999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -16569,7 +18779,7 @@
         <v>23.8482675552</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -16577,7 +18787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -16588,7 +18798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -16602,7 +18812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -16613,7 +18823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -16630,7 +18840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -16647,7 +18857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -16664,7 +18874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -16675,7 +18885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -16698,7 +18908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -16715,7 +18925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -16738,7 +18948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -16761,7 +18971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -16784,7 +18994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
